--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ALLFISTransactionsValueForecast.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ALLFISTransactionsValueForecast.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
-  <si>
-    <t>Point.Forecast</t>
-  </si>
-  <si>
-    <t>Lo.95</t>
-  </si>
-  <si>
-    <t>Hi.95</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Point Forecast</t>
+  </si>
+  <si>
+    <t>Lo 95</t>
+  </si>
+  <si>
+    <t>Hi 95</t>
   </si>
   <si>
     <t>1</t>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>ALLFIS</t>
   </si>
 </sst>
 </file>
@@ -184,552 +178,453 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61786.74931741373</v>
       </c>
       <c r="C2" t="n">
-        <v>4277.171689767477</v>
+        <v>55745.40715312306</v>
       </c>
       <c r="D2" t="n">
-        <v>4048.1238774399053</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4506.2195020950485</v>
+        <v>67828.09148170438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>63082.16996386658</v>
       </c>
       <c r="C3" t="n">
-        <v>4550.789013311795</v>
+        <v>53053.146590118464</v>
       </c>
       <c r="D3" t="n">
-        <v>4240.979769853467</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4860.598256770124</v>
+        <v>73111.19333761469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>62899.263757586916</v>
       </c>
       <c r="C4" t="n">
-        <v>4515.37107796568</v>
+        <v>50784.98101470778</v>
       </c>
       <c r="D4" t="n">
-        <v>4149.085321473986</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4881.656834457374</v>
+        <v>75013.54650046605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>63487.25775817195</v>
       </c>
       <c r="C5" t="n">
-        <v>4517.986171082257</v>
+        <v>49217.75843070723</v>
       </c>
       <c r="D5" t="n">
-        <v>4108.513976875831</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4927.458365288683</v>
+        <v>77756.75708563668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>64177.07931097682</v>
       </c>
       <c r="C6" t="n">
-        <v>4263.134721881476</v>
+        <v>48247.094704243194</v>
       </c>
       <c r="D6" t="n">
-        <v>3819.217664217902</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4707.0517795450505</v>
+        <v>80107.06391771043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>65414.35959631017</v>
       </c>
       <c r="C7" t="n">
-        <v>4543.186612549949</v>
+        <v>47864.46140232936</v>
       </c>
       <c r="D7" t="n">
-        <v>4071.113057272147</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5015.2601678277515</v>
+        <v>82964.25779029097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65267.27630016581</v>
       </c>
       <c r="C8" t="n">
-        <v>4513.795915260797</v>
+        <v>46301.642856511135</v>
       </c>
       <c r="D8" t="n">
-        <v>4018.333946969631</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5009.2578835519635</v>
+        <v>84232.90974382048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65833.19818310568</v>
       </c>
       <c r="C9" t="n">
-        <v>4522.056702624455</v>
+        <v>45512.069297943766</v>
       </c>
       <c r="D9" t="n">
-        <v>4006.9476170351436</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5037.165788213767</v>
+        <v>86154.32706826758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>66536.61936741736</v>
       </c>
       <c r="C10" t="n">
-        <v>4272.493556827373</v>
+        <v>44967.20998447804</v>
       </c>
       <c r="D10" t="n">
-        <v>3740.7436210349997</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4804.243492619747</v>
+        <v>88106.02875035668</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>67765.52030374148</v>
       </c>
       <c r="C11" t="n">
-        <v>4557.4989840611715</v>
+        <v>45003.222802886165</v>
       </c>
       <c r="D11" t="n">
-        <v>4011.565962958429</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5103.432005163914</v>
+        <v>90527.8178045968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>67623.59990409053</v>
       </c>
       <c r="C12" t="n">
-        <v>4532.748248330739</v>
+        <v>43735.52686039579</v>
       </c>
       <c r="D12" t="n">
-        <v>3974.667770380644</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5090.828726280834</v>
+        <v>91511.67294778528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>68186.34069263127</v>
       </c>
       <c r="C13" t="n">
-        <v>4545.355272566272</v>
+        <v>43218.71016026766</v>
       </c>
       <c r="D13" t="n">
-        <v>3976.8303360061786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5113.880209126366</v>
+        <v>93153.97122499488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>68891.72189329988</v>
       </c>
       <c r="C14" t="n">
-        <v>4299.863232684054</v>
+        <v>42891.97931919888</v>
       </c>
       <c r="D14" t="n">
-        <v>3722.3298668259085</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4877.3965985422</v>
+        <v>94891.46446740089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>70119.41517476144</v>
       </c>
       <c r="C15" t="n">
-        <v>4588.682051561851</v>
+        <v>43125.416420740636</v>
       </c>
       <c r="D15" t="n">
-        <v>4003.3588614604278</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5174.005241663275</v>
+        <v>97113.41392878225</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>69978.23886597583</v>
       </c>
       <c r="C16" t="n">
-        <v>4567.503307357707</v>
+        <v>42026.266685950824</v>
       </c>
       <c r="D16" t="n">
-        <v>3975.4297254222006</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5159.576889293213</v>
+        <v>97930.21104600084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>70540.52118642851</v>
       </c>
       <c r="C17" t="n">
-        <v>4583.4562044159175</v>
+        <v>41661.77607205352</v>
       </c>
       <c r="D17" t="n">
-        <v>3985.5225868943153</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5181.38982193752</v>
+        <v>99419.26630080349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71246.18487005391</v>
       </c>
       <c r="C18" t="n">
-        <v>4341.098232703553</v>
+        <v>41469.83298620805</v>
       </c>
       <c r="D18" t="n">
-        <v>3738.0699151509516</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4944.126550256154</v>
+        <v>101022.53675389978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>72473.70410096982</v>
       </c>
       <c r="C19" t="n">
-        <v>4632.852723023107</v>
+        <v>41825.82259950276</v>
       </c>
       <c r="D19" t="n">
-        <v>4025.389502507381</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5240.3159435388325</v>
+        <v>103121.58560243688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72332.63503260954</v>
       </c>
       <c r="C20" t="n">
-        <v>4614.423812692025</v>
+        <v>40837.45170712412</v>
       </c>
       <c r="D20" t="n">
-        <v>4003.0959026225073</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5225.7517227615435</v>
+        <v>103827.81835809497</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>72894.85127737839</v>
       </c>
       <c r="C21" t="n">
-        <v>4632.952470178289</v>
+        <v>40574.498970304056</v>
       </c>
       <c r="D21" t="n">
-        <v>4018.253690198502</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5247.651250158076</v>
+        <v>105215.20358445271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>73600.55567322571</v>
       </c>
       <c r="C22" t="n">
-        <v>4393.007204865288</v>
+        <v>40475.627033566976</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.365972889932</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5010.648436840645</v>
+        <v>106725.48431288445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>74828.04981949752</v>
       </c>
       <c r="C23" t="n">
-        <v>4687.021669406874</v>
+        <v>40917.60314308321</v>
       </c>
       <c r="D23" t="n">
-        <v>4066.8102251494597</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5307.233113664289</v>
+        <v>108738.49649591185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>74686.99620692276</v>
       </c>
       <c r="C24" t="n">
-        <v>4670.709669565024</v>
+        <v>40008.83595845494</v>
       </c>
       <c r="D24" t="n">
-        <v>4048.25185981018</v>
-      </c>
-      <c r="E24" t="n">
-        <v>5293.167479319869</v>
+        <v>109365.15645539059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>75249.20292868202</v>
       </c>
       <c r="C25" t="n">
-        <v>4691.221230208204</v>
+        <v>39819.951236553454</v>
       </c>
       <c r="D25" t="n">
-        <v>4066.7991134787717</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5315.643346937637</v>
+        <v>110678.45462081057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>75954.91319208693</v>
       </c>
       <c r="C26" t="n">
-        <v>4453.133343820628</v>
+        <v>39790.171548411636</v>
       </c>
       <c r="D26" t="n">
-        <v>3826.992818008014</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5079.2738696332435</v>
+        <v>112119.65483576222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>77182.40372309073</v>
       </c>
       <c r="C27" t="n">
-        <v>4748.887609149046</v>
+        <v>40296.83125538968</v>
       </c>
       <c r="D27" t="n">
-        <v>4121.2432247812185</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5376.531993516873</v>
+        <v>114067.97619079179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>77041.35233804636</v>
       </c>
       <c r="C28" t="n">
-        <v>4734.2052750347575</v>
+        <v>39448.770396840686</v>
       </c>
       <c r="D28" t="n">
-        <v>4105.244365507408</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5363.166184562107</v>
+        <v>114633.93427925203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>77603.55768732325</v>
       </c>
       <c r="C29" t="n">
-        <v>4756.243338254375</v>
+        <v>39317.018607492275</v>
       </c>
       <c r="D29" t="n">
-        <v>4126.129574015892</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5386.357102492859</v>
+        <v>115890.09676715422</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78309.26879637671</v>
       </c>
       <c r="C30" t="n">
-        <v>4519.585321855756</v>
+        <v>39341.12959690214</v>
       </c>
       <c r="D30" t="n">
-        <v>3888.4617764281775</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5150.708867283334</v>
+        <v>117277.40799585129</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79536.75880633811</v>
       </c>
       <c r="C31" t="n">
-        <v>4816.678941743332</v>
+        <v>39898.737823440475</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.670742297725</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5448.687141188939</v>
+        <v>119174.77978923576</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79395.70774233156</v>
       </c>
       <c r="C32" t="n">
-        <v>4803.251176680072</v>
+        <v>39098.9396395469</v>
       </c>
       <c r="D32" t="n">
-        <v>4170.467799734552</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5436.034553625592</v>
+        <v>119692.47584511623</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79957.91289380251</v>
       </c>
       <c r="C33" t="n">
-        <v>4826.46439064154</v>
+        <v>39012.994459471694</v>
       </c>
       <c r="D33" t="n">
-        <v>4193.001653627654</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5459.927127655426</v>
+        <v>120902.83132813331</v>
       </c>
     </row>
   </sheetData>
